--- a/testeBot.xlsx
+++ b/testeBot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,91 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>J.A COMÉRCIO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(11) 4543-1550</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>JO-COMÉRCIO DE ABRASIVOS E FERRAMENTAS LTDA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Loja de ferramentas</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(11) 4555-1002</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maua Comercio De Livros E Informatica Ltda.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Livraria</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erorrima Indústria Comércio e Manu Equipamentos Mecânicos</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Loja de materiais de construção</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(11) 4541-7941</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Jacobloja - Comércio de Cosméticos</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Perfumaria</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>(11) 98234-0537</t>
         </is>

--- a/testeBot.xlsx
+++ b/testeBot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J.A COMÉRCIO</t>
+          <t>Loja Kings Mauá</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -466,7 +466,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(11) 4543-1550</t>
+          <t>(11) 4541-5875</t>
         </is>
       </c>
     </row>
@@ -476,19 +476,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JO-COMÉRCIO DE ABRASIVOS E FERRAMENTAS LTDA</t>
+          <t>JS Calçados &amp; Roupas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Loja de ferramentas</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>(11) 4555-1002</t>
-        </is>
-      </c>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -496,53 +492,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maua Comercio De Livros E Informatica Ltda.</t>
+          <t>Rosi calçados</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Livraria</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Erorrima Indústria Comércio e Manu Equipamentos Mecânicos</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Loja de materiais de construção</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>(11) 4541-7941</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jacobloja - Comércio de Cosméticos</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>(11) 98234-0537</t>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>(11) 94310-5100</t>
         </is>
       </c>
     </row>

--- a/testeBot.xlsx
+++ b/testeBot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JS Calçados &amp; Roupas</t>
+          <t>Rosi calçados</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -484,7 +484,11 @@
           <t>Loja de calçado</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(11) 94310-5100</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -492,7 +496,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rosi calçados</t>
+          <t>Artwalk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -502,7 +506,143 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(11) 94310-5100</t>
+          <t>(11) 4514-2234</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>World Tennis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Loja de equipamentos para tênis</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>(11) 4541-5194</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>J&amp;M Calçados</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>(11) 97270-5302</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Deny Tennis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Loja de artigos esportivos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>(11) 4544-5308</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>JS Calçados &amp; Roupas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Authentic Feet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>(11) 4543-0022</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mundial Calçados</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Loja de calçado</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>(11) 4519-5777</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Free Calçados</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Loja de moda masculina</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>(11) 4541-8050</t>
         </is>
       </c>
     </row>

--- a/testeBot.xlsx
+++ b/testeBot.xlsx
@@ -456,17 +456,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loja Kings Mauá</t>
+          <t>Nutricionista Esportivo - Personal Trainer - Dalmira Sousa Mauá-Santo André-Sp: Emagrecimento e Hipertrofia muscular</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(11) 4541-5875</t>
+          <t>(11) 95877-3867</t>
         </is>
       </c>
     </row>
@@ -476,17 +476,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rosi calçados</t>
+          <t>Nutricionista Nicole Garcia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(11) 94310-5100</t>
+          <t>(11) 95248-9846</t>
         </is>
       </c>
     </row>
@@ -496,17 +496,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Artwalk</t>
+          <t>Ana Souza - Nutricionista</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(11) 4514-2234</t>
+          <t>(11) 97552-8742</t>
         </is>
       </c>
     </row>
@@ -516,17 +516,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>World Tennis</t>
+          <t>Nutricionista Roberta Alves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Loja de equipamentos para tênis</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(11) 4541-5194</t>
+          <t>(11) 97096-7014</t>
         </is>
       </c>
     </row>
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>J&amp;M Calçados</t>
+          <t>Nutricionista Charlene Cristina/Mauá -SP e ABC Nutrição Clínica, emagrecimento e nutrição em cirurgia bariátrica</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(11) 97270-5302</t>
+          <t>(11) 98174-3554</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deny Tennis</t>
+          <t>Vanessa Lins</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Loja de artigos esportivos</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(11) 4544-5308</t>
+          <t>(11) 97836-7313</t>
         </is>
       </c>
     </row>
@@ -576,15 +576,19 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>JS Calçados &amp; Roupas</t>
+          <t>Nutricionista Antônia Cunha</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Nutricionista</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>(11) 93949-9843</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -592,17 +596,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Authentic Feet</t>
+          <t>Nutricionista Stephanie Ramalho</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(11) 4543-0022</t>
+          <t>(11) 94998-0820</t>
         </is>
       </c>
     </row>
@@ -612,17 +616,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mundial Calçados</t>
+          <t>Nutricionista Stephanie Ramalho</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Loja de calçado</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>(11) 4519-5777</t>
+          <t>(11) 94998-0820</t>
         </is>
       </c>
     </row>
@@ -632,17 +636,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Free Calçados</t>
+          <t>Camila Oliveira Nutricionista Mauá-SP</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Loja de moda masculina</t>
+          <t>Nutricionista</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>(11) 4541-8050</t>
+          <t>(11) 99686-6783</t>
         </is>
       </c>
     </row>
